--- a/SubRES_TMPL/SubRES_SUP_Hydrogen_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SUP_Hydrogen_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8EC404-81D7-44BD-8C8D-97D64752F6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E85D5-E925-44E6-B1F5-12C3C617B401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="47" r:id="rId1"/>
@@ -359,6 +359,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://en.wikipedia.org/wiki/ISO_3166-2:IE</t>
     </r>
@@ -790,7 +791,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E72D9B-A144-4852-ADB3-453DEA1E193D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -834,7 +835,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7C473E-A16F-4036-8B6A-249B208D8E86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -883,7 +884,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB23E88B-B039-4BBD-84CB-7933D3A53469}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,7 +934,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974B9CE0-A273-4648-A21B-FA29925FCE2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +984,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCD15C9-4745-4108-BA5A-8A7AA08A7FE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1032,7 +1033,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B310A967-1280-45DD-BD29-088B7378E639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1601,7 +1602,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -5219,8 +5220,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:AA7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
